--- a/data/trans_orig/P1435_2011_2023-Nacimiento-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Nacimiento-trans_orig.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -874,634 +874,493 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
+        <v>3047</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3217552</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3217552</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3217552</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>3104</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>3326935</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>3326935</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>3326935</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>6151</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>6544487</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>6544487</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>6544487</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Extranjero</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>209227</v>
+      </c>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="5" t="n">
+        <v>188</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>223971</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>215331</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>228807</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.9680037100503538</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.9306622280678573</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.9889044025931595</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>350</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>433198</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>425534</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>438042</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>0.9831977083144846</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>0.9658029685165869</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>0.9941914354715263</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D8" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="inlineStr"/>
-      <c r="P6" s="6" t="inlineStr"/>
-      <c r="Q6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5" t="inlineStr"/>
-      <c r="T6" s="5" t="inlineStr"/>
-      <c r="U6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6" t="inlineStr"/>
-      <c r="W6" s="6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>3047</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>3217552</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>3217552</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>3217552</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>3104</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>3326935</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>3326935</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>3326935</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>6151</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>6544487</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>6544487</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>6544487</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Extranjero</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>162</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>209227</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>223971</v>
+        <v>7403</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>215331</v>
+        <v>2567</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>228807</v>
+        <v>16043</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9680037100503538</v>
+        <v>0.03199628994964621</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9306622280678573</v>
+        <v>0.01109559740684039</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9889044025931595</v>
+        <v>0.06933777193214273</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>433198</v>
+        <v>7403</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>425534</v>
+        <v>2559</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>438042</v>
+        <v>15067</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9831977083144846</v>
+        <v>0.01680229168551534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9658029685165869</v>
+        <v>0.005808564528473593</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9941914354715263</v>
+        <v>0.03419703148341311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+        <v>209227</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>209227</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>209227</v>
+      </c>
       <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="inlineStr"/>
-      <c r="I9" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" s="5" t="n">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7403</v>
+        <v>231374</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2567</v>
+        <v>231374</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16043</v>
+        <v>231374</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.03199628994964621</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01109559740684039</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06933777193214273</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>6</v>
+        <v>356</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>7403</v>
+        <v>440601</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2559</v>
+        <v>440601</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15067</v>
+        <v>440601</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.01680229168551534</v>
+        <v>1</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005808564528473593</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03419703148341311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>3198</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+        <v>3415765</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3407825</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3421668</v>
+      </c>
       <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
+        <v>0.9967858086469044</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.9944687901281295</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.9985084217263602</v>
+      </c>
       <c r="J10" s="5" t="n">
-        <v>0</v>
+        <v>3182</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+        <v>3431556</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>3404836</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>3450444</v>
+      </c>
       <c r="N10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6" t="inlineStr"/>
-      <c r="P10" s="6" t="inlineStr"/>
+        <v>0.9643783931072394</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>0.9568691022667432</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>0.9696864858975643</v>
+      </c>
       <c r="Q10" s="5" t="n">
-        <v>0</v>
+        <v>6380</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5" t="inlineStr"/>
-      <c r="T10" s="5" t="inlineStr"/>
+        <v>6847321</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>6823143</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>6870935</v>
+      </c>
       <c r="U10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="6" t="inlineStr"/>
-      <c r="W10" s="6" t="inlineStr"/>
+        <v>0.980276982688427</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>0.9768155592986175</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>0.9836576211365268</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>11014</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>5111</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>18954</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.003214191353095675</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.001491578273639765</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.005531209871870509</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>126753</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>107865</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>153473</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.0356216068927606</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.03031351410243513</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.0431308977332567</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>127</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>137767</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>114153</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>161945</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.01972301731157295</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.01634237886347341</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.02318444070138259</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>162</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>209227</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>209227</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>209227</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>194</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>231374</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>231374</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>231374</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>356</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>440601</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>440601</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>440601</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="C12" s="5" t="n">
-        <v>3198</v>
+        <v>3209</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3415765</v>
+        <v>3426779</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3407825</v>
+        <v>3426779</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3421668</v>
+        <v>3426779</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9967858086469044</v>
+        <v>1</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9944687901281295</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9985084217263602</v>
+        <v>1</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3182</v>
+        <v>3298</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3431556</v>
+        <v>3558309</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3404836</v>
+        <v>3558309</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3450444</v>
+        <v>3558309</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9643783931072394</v>
+        <v>1</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9568691022667432</v>
+        <v>1</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9696864858975643</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="5" t="n">
-        <v>6380</v>
+        <v>6507</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>6847321</v>
+        <v>6985088</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6823143</v>
+        <v>6985088</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6870935</v>
+        <v>6985088</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.980276982688427</v>
+        <v>1</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9768155592986175</v>
+        <v>1</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9836576211365268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>11014</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>5111</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>18954</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0.003214191353095675</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0.001491578273639765</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0.005531209871870509</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>126753</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>107865</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>153473</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>0.0356216068927606</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>0.03031351410243513</v>
-      </c>
-      <c r="P13" s="6" t="n">
-        <v>0.0431308977332567</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>137767</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>114153</v>
-      </c>
-      <c r="T13" s="5" t="n">
-        <v>161945</v>
-      </c>
-      <c r="U13" s="6" t="n">
-        <v>0.01972301731157295</v>
-      </c>
-      <c r="V13" s="6" t="n">
-        <v>0.01634237886347341</v>
-      </c>
-      <c r="W13" s="6" t="n">
-        <v>0.02318444070138259</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
-      <c r="J14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="inlineStr"/>
-      <c r="P14" s="6" t="inlineStr"/>
-      <c r="Q14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5" t="inlineStr"/>
-      <c r="T14" s="5" t="inlineStr"/>
-      <c r="U14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6" t="inlineStr"/>
-      <c r="W14" s="6" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>3209</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>3426779</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>3426779</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>3426779</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>3298</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>3558309</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>3558309</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>3558309</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>6507</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>6985088</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>6985088</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>6985088</v>
-      </c>
-      <c r="U15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -1510,9 +1369,9 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="C1:I1"/>
@@ -1527,7 +1386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1750,44 +1609,68 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>3064</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+        <v>3171644</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3153139</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3184790</v>
+      </c>
       <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="inlineStr"/>
-      <c r="I4" s="6" t="inlineStr"/>
+        <v>0.9821334181741981</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.9764031671066299</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9862042655179774</v>
+      </c>
       <c r="J4" s="5" t="n">
-        <v>0</v>
+        <v>4498</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+        <v>3119700</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>3089796</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>3147708</v>
+      </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="inlineStr"/>
-      <c r="P4" s="6" t="inlineStr"/>
+        <v>0.9105777955324154</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.9018495023559124</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.9187529139153023</v>
+      </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>7562</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="inlineStr"/>
-      <c r="T4" s="5" t="inlineStr"/>
+        <v>6291343</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>6258471</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>6325703</v>
+      </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="inlineStr"/>
-      <c r="W4" s="6" t="inlineStr"/>
+        <v>0.9452980596412682</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>0.9403589261810724</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>0.9504606912528477</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -1864,674 +1747,509 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3064</v>
+        <v>3124</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3171644</v>
+        <v>3229341</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3153139</v>
+        <v>3229341</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3184790</v>
+        <v>3229341</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9821334181741981</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9764031671066299</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9862042655179774</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4498</v>
+        <v>4972</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3119700</v>
+        <v>3426066</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3089796</v>
+        <v>3426066</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3147708</v>
+        <v>3426066</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9105777955324154</v>
+        <v>1</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9018495023559124</v>
+        <v>1</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9187529139153023</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>7562</v>
+        <v>8096</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>6291343</v>
+        <v>6655407</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6258471</v>
+        <v>6655407</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6325703</v>
+        <v>6655407</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9452980596412682</v>
+        <v>1</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9403589261810724</v>
+        <v>1</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9504606912528477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Extranjero</t>
+        </is>
+      </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>3124</v>
+        <v>245</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3229341</v>
+        <v>296267</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3229341</v>
+        <v>292230</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3229341</v>
+        <v>298144</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1</v>
+        <v>0.9937047844632876</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1</v>
+        <v>0.9801637033630959</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>4972</v>
+        <v>335</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>3426066</v>
+        <v>268247</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3426066</v>
+        <v>256954</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3426066</v>
+        <v>275968</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1</v>
+        <v>0.9138764804602318</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>1</v>
+        <v>0.8754021031880241</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.940180387900871</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>8096</v>
+        <v>580</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>6655407</v>
+        <v>564515</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6655407</v>
+        <v>553095</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6655407</v>
+        <v>572679</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>1</v>
+        <v>0.9541021279785675</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>1</v>
+        <v>0.9348022926888127</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>1</v>
+        <v>0.9679009031903135</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Extranjero</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1877</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="F8" s="5" t="n">
+        <v>5914</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.006295215536712299</v>
+      </c>
+      <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.0198362966369042</v>
+      </c>
       <c r="J8" s="5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+        <v>25280</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>17559</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>36573</v>
+      </c>
       <c r="N8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="inlineStr"/>
-      <c r="P8" s="6" t="inlineStr"/>
+        <v>0.08612351953976835</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.05981961209912906</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.1245978968119754</v>
+      </c>
       <c r="Q8" s="5" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5" t="inlineStr"/>
-      <c r="T8" s="5" t="inlineStr"/>
+        <v>27156</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>18992</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>38576</v>
+      </c>
       <c r="U8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6" t="inlineStr"/>
-      <c r="W8" s="6" t="inlineStr"/>
+        <v>0.04589787202143258</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0.03209909680968652</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0.06519770731118746</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2</v>
+        <v>247</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1877</v>
+        <v>298144</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0</v>
+        <v>298144</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5914</v>
+        <v>298144</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.006295215536712299</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0198362966369042</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>33</v>
+        <v>368</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>25280</v>
+        <v>293527</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17559</v>
+        <v>293527</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36573</v>
+        <v>293527</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08612351953976835</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05981961209912906</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1245978968119754</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>35</v>
+        <v>615</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>27156</v>
+        <v>591671</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18992</v>
+        <v>591671</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>38576</v>
+        <v>591671</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.04589787202143258</v>
+        <v>1</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03209909680968652</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06519770731118746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>245</v>
+        <v>3309</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>296267</v>
+        <v>3467911</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>292230</v>
+        <v>3450473</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>298144</v>
+        <v>3482554</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9937047844632876</v>
+        <v>0.9831114345946688</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9801637033630959</v>
+        <v>0.9781681483016063</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1</v>
+        <v>0.9872625511332527</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>335</v>
+        <v>4833</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>268247</v>
+        <v>3387947</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>256954</v>
+        <v>3352548</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275968</v>
+        <v>3414562</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9138764804602318</v>
+        <v>0.9108381070427174</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8754021031880241</v>
+        <v>0.9013212526078507</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.940180387900871</v>
+        <v>0.9179934512338835</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>580</v>
+        <v>8142</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>564515</v>
+        <v>6855858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>553095</v>
+        <v>6819333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>572679</v>
+        <v>6889528</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9541021279785675</v>
+        <v>0.9460168479586019</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9348022926888127</v>
+        <v>0.9409768754037749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9679009031903135</v>
+        <v>0.9506629396699201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>59574</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>44931</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>77012</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.01688856540533135</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.01273744886674693</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.02183185169839329</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>507</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>331646</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>305031</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>367045</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.08916189295728257</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.08200654876611647</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.09867874739214917</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>569</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>391220</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>357550</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>427745</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.05398315204139841</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.04933706033007991</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.05902312459622502</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>247</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>298144</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>298144</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>298144</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>368</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>293527</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>293527</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>293527</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>615</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>591671</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>591671</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>591671</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="C12" s="5" t="n">
-        <v>0</v>
+        <v>3371</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+        <v>3527485</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3527485</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3527485</v>
+      </c>
       <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="inlineStr"/>
-      <c r="I12" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J12" s="5" t="n">
-        <v>0</v>
+        <v>5340</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+        <v>3719593</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>3719593</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>3719593</v>
+      </c>
       <c r="N12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="inlineStr"/>
-      <c r="P12" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q12" s="5" t="n">
-        <v>0</v>
+        <v>8711</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5" t="inlineStr"/>
-      <c r="T12" s="5" t="inlineStr"/>
+        <v>7247078</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>7247078</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>7247078</v>
+      </c>
       <c r="U12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6" t="inlineStr"/>
-      <c r="W12" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>59574</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>44931</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>77012</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0.01688856540533135</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0.01273744886674693</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0.02183185169839329</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>507</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>331646</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>305031</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>367045</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>0.08916189295728257</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>0.08200654876611647</v>
-      </c>
-      <c r="P13" s="6" t="n">
-        <v>0.09867874739214917</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>569</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>391220</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>357550</v>
-      </c>
-      <c r="T13" s="5" t="n">
-        <v>427745</v>
-      </c>
-      <c r="U13" s="6" t="n">
-        <v>0.05398315204139841</v>
-      </c>
-      <c r="V13" s="6" t="n">
-        <v>0.04933706033007991</v>
-      </c>
-      <c r="W13" s="6" t="n">
-        <v>0.05902312459622502</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>3309</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>3467911</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>3450473</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>3482554</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>0.9831114345946688</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>0.9781681483016063</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0.9872625511332527</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>4833</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>3387947</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>3352548</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>3414562</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>0.9108381070427174</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>0.9013212526078507</v>
-      </c>
-      <c r="P14" s="6" t="n">
-        <v>0.9179934512338835</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>8142</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>6855858</v>
-      </c>
-      <c r="S14" s="5" t="n">
-        <v>6819333</v>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>6889528</v>
-      </c>
-      <c r="U14" s="6" t="n">
-        <v>0.9460168479586019</v>
-      </c>
-      <c r="V14" s="6" t="n">
-        <v>0.9409768754037749</v>
-      </c>
-      <c r="W14" s="6" t="n">
-        <v>0.9506629396699201</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>3371</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>3527485</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>3527485</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>3527485</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>5340</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>3719593</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>3719593</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>3719593</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>8711</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>7247078</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>7247078</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>7247078</v>
-      </c>
-      <c r="U15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -2540,9 +2258,9 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="C1:I1"/>
